--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1237.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1237.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2.554337686005161</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1237.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1237.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.205660820007324</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="B1">
-        <v>2.554337686005161</v>
-      </c>
       <c r="C1">
-        <v>1.669266554025532</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.443430458749788</v>
+        <v>1.762675046920776</v>
       </c>
       <c r="E1">
-        <v>1.399863499323242</v>
+        <v>1.204099416732788</v>
       </c>
     </row>
   </sheetData>
